--- a/biology/Botanique/Celastrinites/Celastrinites.xlsx
+++ b/biology/Botanique/Celastrinites/Celastrinites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celastrinites est un genre fossile de plantes dicotylédones de la famille des Celastraceae (les Célastracées).
 Les différentes espèces ont été trouvées dans des terrains datant du Crétacé supérieur.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Celastrinites est décrit par Saporta en 1865[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Celastrinites est décrit par Saporta en 1865,
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database (site visité le 12 janvier 2023), le genre compte 4 espèces[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database (site visité le 12 janvier 2023), le genre compte 4 espèces :
 †Celastrinites ambiguus, Lesquereux 1871
 †Celastrinites artocarpidioides, Lesquereux 1878
 †Celastrinites elegans, Lesquereux 1883
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gaston de Saporta, Études sur la végétation du Sud-Est de la France à l'époque tertiaire, 1865</t>
         </is>
